--- a/public/sample.xlsx
+++ b/public/sample.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project-personal\vue-ticketbook\src\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project-personal\photo-calendar\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11295" windowHeight="10575"/>
   </bookViews>
   <sheets>
-    <sheet name="List" sheetId="1" r:id="rId1"/>
+    <sheet name="주의사항" sheetId="2" r:id="rId1"/>
+    <sheet name="List" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="317">
   <si>
     <t>사진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1012,6 +1013,24 @@
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식에 맞게 입력하세요</t>
+  </si>
+  <si>
+    <t>'List' 시트명을 변경하지 마세요</t>
+  </si>
+  <si>
+    <t>id, 분류, 제목, 날짜 필수 입력</t>
+  </si>
+  <si>
+    <t>id값은 숫자로 중복되지 않게 입력해주세요</t>
+  </si>
+  <si>
+    <t>제목등에 쉼표(,) 가 있으면 안됩니다</t>
+  </si>
+  <si>
+    <t>분류, 출연진 구분은 '/' 로 해주세요</t>
   </si>
 </sst>
 </file>
@@ -1417,11 +1436,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
